--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C9874B-DD60-274C-97B4-93CDB9FD093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7F6BC-2A4C-E545-A8E8-04E933F22E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="10" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId6"/>
-    <sheet name="Yelp-CPU" sheetId="7" r:id="rId7"/>
-    <sheet name="Douban-music" sheetId="8" r:id="rId8"/>
-    <sheet name="Gowalla-CPU" sheetId="5" r:id="rId9"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId10"/>
-    <sheet name="ml-1m CPU" sheetId="13" r:id="rId11"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId12"/>
-    <sheet name="ml-1m GPU" sheetId="12" r:id="rId13"/>
+    <sheet name="Yelp-CPU" sheetId="7" r:id="rId5"/>
+    <sheet name="Douban-music" sheetId="8" r:id="rId6"/>
+    <sheet name="Gowalla-CPU" sheetId="5" r:id="rId7"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId8"/>
+    <sheet name="ml-1m CPU" sheetId="13" r:id="rId9"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId10"/>
+    <sheet name="ml-1m GPU" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26025,10 +26023,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30411,7 +30409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
   <dimension ref="B6:Y350"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
       <selection activeCell="P350" sqref="P350"/>
     </sheetView>
   </sheetViews>
@@ -30421,16 +30419,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -31526,18 +31524,18 @@
     </row>
     <row r="276" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O276" s="6"/>
-      <c r="P276" s="14" t="s">
+      <c r="P276" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Q276" s="14"/>
-      <c r="R276" s="14" t="s">
+      <c r="Q276" s="15"/>
+      <c r="R276" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S276" s="14"/>
-      <c r="T276" s="14" t="s">
+      <c r="S276" s="15"/>
+      <c r="T276" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="U276" s="14"/>
+      <c r="U276" s="15"/>
     </row>
     <row r="277" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O277" s="4" t="s">
@@ -31973,918 +31971,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W164"/>
-  <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V65">
-        <v>0.64349999999999996</v>
-      </c>
-      <c r="W65">
-        <v>0.28489999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V66">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="W66">
-        <f>0.2797</f>
-        <v>0.2797</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V67">
-        <f>V65-V66</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="W67">
-        <f>W65-W66</f>
-        <v>5.1999999999999824E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V68" s="1">
-        <f>V67/V66</f>
-        <v>9.4117647058823625E-3</v>
-      </c>
-      <c r="W68" s="1">
-        <f>W67/W66</f>
-        <v>1.8591347872720709E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K130">
-        <f>0.6621</f>
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="L130">
-        <f>0.2997</f>
-        <v>0.29970000000000002</v>
-      </c>
-      <c r="P130">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="Q130">
-        <v>0.30120000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K131">
-        <f>0.6604</f>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="L131">
-        <f>0.2958</f>
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="P131">
-        <f>0.6604</f>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="Q131">
-        <v>0.2954</v>
-      </c>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K132">
-        <f>K130-K131</f>
-        <v>1.7000000000000348E-3</v>
-      </c>
-      <c r="L132">
-        <f>L130-L131</f>
-        <v>3.9000000000000146E-3</v>
-      </c>
-      <c r="P132">
-        <f>P130-P131</f>
-        <v>2.5000000000000577E-3</v>
-      </c>
-      <c r="Q132">
-        <f>Q130-Q131</f>
-        <v>5.8000000000000274E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K133" s="11">
-        <f>K132/K131</f>
-        <v>2.5741974560872728E-3</v>
-      </c>
-      <c r="L133" s="11">
-        <f>L132/L131</f>
-        <v>1.3184584178499034E-2</v>
-      </c>
-      <c r="P133" s="11">
-        <f>P132/P131</f>
-        <v>3.785584494245999E-3</v>
-      </c>
-      <c r="Q133" s="11">
-        <f>Q132/Q131</f>
-        <v>1.9634394041977074E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B137" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B138" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B139" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B143" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B145" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B147" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B148" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B154" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B155" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q159">
-        <v>29858</v>
-      </c>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q160">
-        <v>40981</v>
-      </c>
-    </row>
-    <row r="161" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K161">
-        <v>0.23860000000000001</v>
-      </c>
-      <c r="Q161">
-        <f>Q160+Q159</f>
-        <v>70839</v>
-      </c>
-    </row>
-    <row r="162" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K162">
-        <v>0.2324</v>
-      </c>
-    </row>
-    <row r="163" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K163">
-        <f>K161-K162</f>
-        <v>6.2000000000000111E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K164" s="1">
-        <f>K163/K162</f>
-        <v>2.667814113597251E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93B5AA3-116A-7B42-A7F1-EB85202AD355}">
-  <dimension ref="E4:J33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="15" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="J30">
-        <v>0.35160000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="J31">
-        <f>0.3416</f>
-        <v>0.34160000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="J32">
-        <f>J30-J31</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J33" s="1">
-        <f>J32/J31</f>
-        <v>2.9274004683840775E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>
@@ -33299,7 +32385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53A4F0-6685-F846-B043-E09FCBA7D156}">
   <dimension ref="D4:J63"/>
   <sheetViews>
@@ -34753,7 +33839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42FCFF-091E-7840-B7C3-E713DE4E5FB6}">
   <dimension ref="G4:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -34830,30 +33916,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95BED56-C25C-5241-BA66-E3559BF69E62}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D081D2-923B-464B-8D55-AF476C32B5D1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
   <dimension ref="D6:O36"/>
   <sheetViews>
@@ -35032,7 +34094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8B800-93CF-FA4D-8D4C-4D90126358DD}">
   <dimension ref="F5:W34"/>
   <sheetViews>
@@ -35215,7 +34277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
   <dimension ref="F9:F28"/>
   <sheetViews>
@@ -35318,4 +34380,916 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
+  <dimension ref="B4:W164"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V65">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="W65">
+        <v>0.28489999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V66">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="W66">
+        <f>0.2797</f>
+        <v>0.2797</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V67">
+        <f>V65-V66</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="W67">
+        <f>W65-W66</f>
+        <v>5.1999999999999824E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V68" s="1">
+        <f>V67/V66</f>
+        <v>9.4117647058823625E-3</v>
+      </c>
+      <c r="W68" s="1">
+        <f>W67/W66</f>
+        <v>1.8591347872720709E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <f>0.6621</f>
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="L130">
+        <f>0.2997</f>
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="P130">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="Q130">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="L131">
+        <f>0.2958</f>
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="P131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="Q131">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <f>K130-K131</f>
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="L132">
+        <f>L130-L131</f>
+        <v>3.9000000000000146E-3</v>
+      </c>
+      <c r="P132">
+        <f>P130-P131</f>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="Q132">
+        <f>Q130-Q131</f>
+        <v>5.8000000000000274E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K133" s="11">
+        <f>K132/K131</f>
+        <v>2.5741974560872728E-3</v>
+      </c>
+      <c r="L133" s="11">
+        <f>L132/L131</f>
+        <v>1.3184584178499034E-2</v>
+      </c>
+      <c r="P133" s="11">
+        <f>P132/P131</f>
+        <v>3.785584494245999E-3</v>
+      </c>
+      <c r="Q133" s="11">
+        <f>Q132/Q131</f>
+        <v>1.9634394041977074E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>29858</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>40981</v>
+      </c>
+    </row>
+    <row r="161" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="Q161">
+        <f>Q160+Q159</f>
+        <v>70839</v>
+      </c>
+    </row>
+    <row r="162" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0.2324</v>
+      </c>
+    </row>
+    <row r="163" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <f>K161-K162</f>
+        <v>6.2000000000000111E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K164" s="1">
+        <f>K163/K162</f>
+        <v>2.667814113597251E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93B5AA3-116A-7B42-A7F1-EB85202AD355}">
+  <dimension ref="E4:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>0.35160000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f>0.3416</f>
+        <v>0.34160000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f>J30-J31</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="1">
+        <f>J32/J31</f>
+        <v>2.9274004683840775E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>